--- a/excel/import/data_(2).xlsx
+++ b/excel/import/data_(2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbenastey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDEA825-2C7F-4752-9BE1-5733AC2CCFAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362B22AC-2949-4D5A-9350-B9E4DA5361A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{D30C9278-207D-415C-9E7B-8C0ACF7B1875}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D30C9278-207D-415C-9E7B-8C0ACF7B1875}"/>
   </bookViews>
   <sheets>
     <sheet name="anggota" sheetId="1" r:id="rId1"/>
@@ -90,33 +90,18 @@
     <t>nik</t>
   </si>
   <si>
-    <t>Asep Mahfudz</t>
-  </si>
-  <si>
     <t>10201500183</t>
   </si>
   <si>
-    <t>Pedro Relian</t>
-  </si>
-  <si>
     <t>03201800075</t>
   </si>
   <si>
-    <t>Anisa Aulia</t>
-  </si>
-  <si>
     <t>11201700179</t>
   </si>
   <si>
-    <t>Endar Ernanda</t>
-  </si>
-  <si>
     <t>10201600252</t>
   </si>
   <si>
-    <t>Irma Yunita</t>
-  </si>
-  <si>
     <t>02201700255</t>
   </si>
   <si>
@@ -199,6 +184,21 @@
   </si>
   <si>
     <t>asdds</t>
+  </si>
+  <si>
+    <t>jihad</t>
+  </si>
+  <si>
+    <t>ryan</t>
+  </si>
+  <si>
+    <t>januariska</t>
+  </si>
+  <si>
+    <t>dian</t>
+  </si>
+  <si>
+    <t>ismi</t>
   </si>
 </sst>
 </file>
@@ -234,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -255,38 +255,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A68A2B-6521-4545-B623-97BE74CD28A7}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,40 +601,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
@@ -669,84 +655,84 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -766,7 +752,7 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="A4" sqref="A4:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,62 +763,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
@@ -884,10 +870,10 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -901,10 +887,10 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -915,10 +901,10 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -932,10 +918,10 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -946,10 +932,10 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -977,7 +963,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A8" sqref="A4:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,40 +974,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1043,10 +1029,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1054,10 +1040,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1065,10 +1051,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -1076,10 +1062,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1087,10 +1073,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -1113,7 +1099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECE7FFA-EC79-4AC4-81F2-57E9B2BDEA11}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1151,117 +1137,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
